--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>310456.9600535015</v>
+        <v>324447.1746844274</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16628357.41382743</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8160003.573994848</v>
+        <v>8210319.857559163</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +659,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>361.0423675600758</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>140.6816458093004</v>
       </c>
     </row>
     <row r="3">
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55.58468188911726</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>173.3012350016163</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.3086748172354</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>235.611527729725</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1069,10 +1069,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>213.646247653749</v>
+        <v>193.8659438253731</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>153.7581094573189</v>
       </c>
       <c r="C8" t="n">
-        <v>320.0331481255878</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1376,16 +1376,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>95.00954370850232</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1433,10 +1433,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>33.34862332255518</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>131.9969996527477</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>381.6741526088553</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1856,13 +1856,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>378.6637271078779</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>10.04027365719937</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.0567773522578</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.09522912291106</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>137.8834167598885</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>43.48898701015895</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2482,16 +2482,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>64.90507698037661</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>16.0551245615324</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2776,10 +2776,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>81.01098805494659</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>18.0567773522575</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>13.5144690908971</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3190,13 +3190,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>90.59002589087449</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507799917</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>82.64119670414914</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3515,7 +3515,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629683</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -3664,10 +3664,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>124.0599116349193</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225773</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800581</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3910,10 +3910,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225831</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3961,7 +3961,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>128.777869115097</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3992,7 +3992,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4135,10 +4135,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4150,10 +4150,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225694</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4195,7 +4195,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>238.4927676793444</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.0636759001416</v>
+        <v>859.8379638571105</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>825.7358950809379</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>793.8665142957865</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>360.0917694540817</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>336.2647439036934</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>336.2647439036934</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>47.13458934690968</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404968</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>481.9724874269676</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1060.105262105832</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1060.105262105832</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1060.105262105832</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1060.105262105832</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1060.105262105832</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1620.237147990833</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2166.735933949427</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702484</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2252.238124886321</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2252.238124886321</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2252.238124886321</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>2252.238124886321</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1847.382670297354</v>
       </c>
       <c r="X2" t="n">
-        <v>1318.649370085396</v>
+        <v>1428.240206876665</v>
       </c>
       <c r="Y2" t="n">
-        <v>910.3632463850494</v>
+        <v>1286.137534342018</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>552.8895449653425</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>446.4330838019848</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>351.342794948538</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>257.2223802754917</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>173.8385418916533</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>88.45345215783721</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404968</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>72.78147313450729</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8519551513677</v>
+        <v>397.3397981007196</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8519551513677</v>
+        <v>975.4725727795844</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8519551513677</v>
+        <v>975.4725727795844</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>975.4725727795844</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>975.4725727795844</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>975.4725727795844</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1052.045844726443</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1592.784783358519</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1709.957561452858</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1646.502123901241</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1516.323480231843</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1339.986933231811</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1140.869415293811</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>955.5466610270048</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>800.6792252658848</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>674.1934460451056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428.0970671107308</v>
+        <v>1037.116011360606</v>
       </c>
       <c r="C4" t="n">
-        <v>428.0970671107308</v>
+        <v>864.5542998438312</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>698.676307045354</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>528.9183032960913</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>352.2112492578475</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>186.6199742836752</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>46.71779997404968</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404968</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>46.71779997404968</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>321.4762545451853</v>
       </c>
       <c r="L4" t="n">
-        <v>341.7616130750586</v>
+        <v>739.6861363131463</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>1199.170003494059</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1400.521080642029</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1820.19032986781</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2167.697223838152</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2335.889998702484</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2314.472177407856</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2155.230808705853</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2155.230808705853</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1876.797807958958</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>1701.746055432073</v>
       </c>
       <c r="W4" t="n">
-        <v>711.6628811189632</v>
+        <v>1701.746055432073</v>
       </c>
       <c r="X4" t="n">
-        <v>711.6628811189632</v>
+        <v>1456.354300765485</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.2432104330715</v>
+        <v>1228.934630079593</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1880.724249858583</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1442.581777042007</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>2326.371599383719</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>2311.269540003434</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>2307.023820343491</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>884.4397056785397</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>711.8779941617646</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>546.0000013632873</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>1076.258324397527</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="V7" t="n">
-        <v>1076.258324397527</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1076.258324397527</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1076.258324397527</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1076.258324397527</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>442.6402219259112</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>267.8706684926505</v>
+        <v>687.540662806093</v>
       </c>
       <c r="L8" t="n">
-        <v>267.8706684926505</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M8" t="n">
-        <v>267.8706684926505</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X8" t="n">
-        <v>1277.225916111166</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y8" t="n">
-        <v>868.939792410819</v>
+        <v>732.2856581561051</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1742.310879879379</v>
+        <v>2217.670438736347</v>
       </c>
       <c r="C11" t="n">
-        <v>1304.168407062802</v>
+        <v>1779.527965919771</v>
       </c>
       <c r="D11" t="n">
-        <v>868.2586222372465</v>
+        <v>1343.618181094215</v>
       </c>
       <c r="E11" t="n">
-        <v>868.2586222372465</v>
+        <v>909.8434362525102</v>
       </c>
       <c r="F11" t="n">
-        <v>772.2893861680516</v>
+        <v>481.976006661718</v>
       </c>
       <c r="G11" t="n">
-        <v>370.8915547913155</v>
+        <v>80.57817528498188</v>
       </c>
       <c r="H11" t="n">
-        <v>81.76140023453173</v>
+        <v>80.57817528498188</v>
       </c>
       <c r="I11" t="n">
-        <v>81.34461086167174</v>
+        <v>80.16138591212189</v>
       </c>
       <c r="J11" t="n">
-        <v>516.5992983145896</v>
+        <v>515.4160733650398</v>
       </c>
       <c r="K11" t="n">
-        <v>536.4485915550443</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="L11" t="n">
-        <v>1543.088150968232</v>
+        <v>1349.766365323218</v>
       </c>
       <c r="M11" t="n">
-        <v>1543.088150968232</v>
+        <v>2341.763515985726</v>
       </c>
       <c r="N11" t="n">
-        <v>1543.088150968232</v>
+        <v>2464.106570061046</v>
       </c>
       <c r="O11" t="n">
-        <v>2523.267817538538</v>
+        <v>2464.106570061046</v>
       </c>
       <c r="P11" t="n">
-        <v>3351.577692371935</v>
+        <v>3292.416444894443</v>
       </c>
       <c r="Q11" t="n">
-        <v>3898.076478330529</v>
+        <v>3838.915230853037</v>
       </c>
       <c r="R11" t="n">
-        <v>4067.230543083587</v>
+        <v>4008.069295606094</v>
       </c>
       <c r="S11" t="n">
-        <v>3983.578669267424</v>
+        <v>3924.417421789931</v>
       </c>
       <c r="T11" t="n">
-        <v>3763.511442140462</v>
+        <v>3704.35019466297</v>
       </c>
       <c r="U11" t="n">
-        <v>3763.511442140462</v>
+        <v>3445.127891979987</v>
       </c>
       <c r="V11" t="n">
-        <v>3400.894492074289</v>
+        <v>3082.510941913813</v>
       </c>
       <c r="W11" t="n">
-        <v>2996.039037485322</v>
+        <v>2677.655487324847</v>
       </c>
       <c r="X11" t="n">
-        <v>2576.896574064633</v>
+        <v>2677.655487324847</v>
       </c>
       <c r="Y11" t="n">
-        <v>2168.610450364286</v>
+        <v>2643.970009221255</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>587.5163558529646</v>
+        <v>586.3331309034147</v>
       </c>
       <c r="C12" t="n">
-        <v>481.0598946896068</v>
+        <v>479.876669740057</v>
       </c>
       <c r="D12" t="n">
-        <v>385.9696058361601</v>
+        <v>384.7863808866102</v>
       </c>
       <c r="E12" t="n">
-        <v>291.8491911631138</v>
+        <v>290.6659662135639</v>
       </c>
       <c r="F12" t="n">
-        <v>208.4653527792754</v>
+        <v>207.2821278297255</v>
       </c>
       <c r="G12" t="n">
-        <v>123.0802630454593</v>
+        <v>121.8970380959094</v>
       </c>
       <c r="H12" t="n">
-        <v>81.34461086167174</v>
+        <v>80.16138591212189</v>
       </c>
       <c r="I12" t="n">
-        <v>107.4082840221293</v>
+        <v>106.2250590725795</v>
       </c>
       <c r="J12" t="n">
-        <v>431.9666089883416</v>
+        <v>430.7833840387918</v>
       </c>
       <c r="K12" t="n">
-        <v>1086.672655614065</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="L12" t="n">
-        <v>1086.672655614065</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="M12" t="n">
-        <v>1086.672655614065</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="N12" t="n">
-        <v>1086.672655614065</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="O12" t="n">
-        <v>1086.672655614065</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="P12" t="n">
-        <v>1086.672655614065</v>
+        <v>1085.489430664516</v>
       </c>
       <c r="Q12" t="n">
-        <v>1627.411594246141</v>
+        <v>1626.228369296591</v>
       </c>
       <c r="R12" t="n">
-        <v>1744.584372340481</v>
+        <v>1743.401147390931</v>
       </c>
       <c r="S12" t="n">
-        <v>1681.128934788864</v>
+        <v>1679.945709839314</v>
       </c>
       <c r="T12" t="n">
-        <v>1550.950291119465</v>
+        <v>1549.767066169916</v>
       </c>
       <c r="U12" t="n">
-        <v>1374.613744119434</v>
+        <v>1373.430519169884</v>
       </c>
       <c r="V12" t="n">
-        <v>1175.496226181433</v>
+        <v>1174.313001231883</v>
       </c>
       <c r="W12" t="n">
-        <v>990.173471914627</v>
+        <v>988.9902469650772</v>
       </c>
       <c r="X12" t="n">
-        <v>835.306036153507</v>
+        <v>834.1228112039571</v>
       </c>
       <c r="Y12" t="n">
-        <v>708.8202569327277</v>
+        <v>707.6370319831778</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1160.402771473553</v>
+        <v>930.6574229890529</v>
       </c>
       <c r="C13" t="n">
-        <v>987.8410599567782</v>
+        <v>758.0957114722778</v>
       </c>
       <c r="D13" t="n">
-        <v>821.9630671583009</v>
+        <v>592.2177186738006</v>
       </c>
       <c r="E13" t="n">
-        <v>652.2050634090381</v>
+        <v>422.4597149245378</v>
       </c>
       <c r="F13" t="n">
-        <v>475.4980093707943</v>
+        <v>245.7526608862941</v>
       </c>
       <c r="G13" t="n">
-        <v>309.9067343966219</v>
+        <v>80.16138591212166</v>
       </c>
       <c r="H13" t="n">
-        <v>170.0045600869964</v>
+        <v>80.16138591212189</v>
       </c>
       <c r="I13" t="n">
-        <v>81.34461086167174</v>
+        <v>80.16138591212189</v>
       </c>
       <c r="J13" t="n">
-        <v>167.9242960263616</v>
+        <v>166.7410710768117</v>
       </c>
       <c r="K13" t="n">
-        <v>442.6827505974972</v>
+        <v>441.4995256479473</v>
       </c>
       <c r="L13" t="n">
-        <v>860.8926323654582</v>
+        <v>859.7094074159085</v>
       </c>
       <c r="M13" t="n">
-        <v>1320.376499546371</v>
+        <v>1319.193274596822</v>
       </c>
       <c r="N13" t="n">
-        <v>1762.635302704016</v>
+        <v>1761.452077754466</v>
       </c>
       <c r="O13" t="n">
-        <v>2182.304551929797</v>
+        <v>2181.121326980247</v>
       </c>
       <c r="P13" t="n">
-        <v>2529.811445900139</v>
+        <v>2528.628220950589</v>
       </c>
       <c r="Q13" t="n">
-        <v>2698.004220764471</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="R13" t="n">
-        <v>2676.586399469843</v>
+        <v>2696.820995814921</v>
       </c>
       <c r="S13" t="n">
-        <v>2517.34503076784</v>
+        <v>2678.581826772237</v>
       </c>
       <c r="T13" t="n">
-        <v>2517.34503076784</v>
+        <v>2432.702380350692</v>
       </c>
       <c r="U13" t="n">
-        <v>2384.014728088297</v>
+        <v>2154.269379603797</v>
       </c>
       <c r="V13" t="n">
-        <v>2097.059219958728</v>
+        <v>1867.313871474228</v>
       </c>
       <c r="W13" t="n">
-        <v>1825.03281554502</v>
+        <v>1595.287467060519</v>
       </c>
       <c r="X13" t="n">
-        <v>1579.641060878432</v>
+        <v>1349.895712393932</v>
       </c>
       <c r="Y13" t="n">
-        <v>1352.22139019254</v>
+        <v>1122.47604170804</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.505639335272</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.363166518695</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.45338169314</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1220.678636851435</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>792.8112072606428</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.4133758839067</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H14" t="n">
-        <v>102.283221327123</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I14" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>537.1211194071809</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1371.471411365359</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2446.531377618218</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2446.531377618218</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>2569.179205597795</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3549.358872168102</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4377.668747001498</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4924.167532960092</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5093.321597713149</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5009.669723896985</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.602496770024</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4530.380194087041</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4167.763244020867</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.233796941216</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.091333520526</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2954.80520982018</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>608.0381769455557</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.581715782198</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>406.4914269287513</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>312.371012255705</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>228.9871738718666</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.6020841380505</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>127.9301051147206</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>452.4884300809329</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.194476706657</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.194476706657</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.194476706657</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.194476706657</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.194476706657</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1107.194476706657</v>
+        <v>1272.606004876648</v>
       </c>
       <c r="Q15" t="n">
-        <v>1647.933415338732</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1765.106193433072</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1701.650755881455</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1571.472112212057</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1395.135565212025</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1196.018047274024</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1010.695293007218</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>855.8278572460981</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>729.3420780253189</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.3624690311942</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C16" t="n">
-        <v>779.8007575144193</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D16" t="n">
-        <v>613.922764715942</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E16" t="n">
-        <v>444.1647609666791</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F16" t="n">
-        <v>267.4577069284353</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G16" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H16" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>188.4461171189529</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.2045716900884</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>881.4144534580495</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1340.898320638963</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.157123796607</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2202.826373022388</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.33326699273</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.526041857062</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.526041857062</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2700.286872814379</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.407426392834</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2175.974425645939</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.018917516369</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1616.992513102661</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.600758436073</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.181087750181</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2509.179631825957</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2071.037159009381</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1635.127374183825</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.35262934212</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>773.4851997513279</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>390.9965865110467</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>101.866431954263</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.1211194071809</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.471411365359</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.531377618218</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.531377618218</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2569.179205597795</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3549.358872168102</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4377.668747001498</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4924.167532960092</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5093.321597713149</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5009.669723896985</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.602496770024</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4530.380194087041</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4167.763244020867</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3762.907789431901</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3343.765326011212</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2935.479202310865</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>608.0381769455557</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.581715782198</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>406.4914269287513</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>312.371012255705</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>228.9871738718666</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.6020841380505</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>127.9301051147206</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>452.4884300809329</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.194476706657</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.194476706657</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.194476706657</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.194476706657</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.194476706657</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1647.933415338732</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1765.106193433072</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1701.650755881455</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1571.472112212057</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1395.135565212025</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1196.018047274024</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1010.695293007218</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>855.8278572460981</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>729.3420780253189</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.6016380738788</v>
+        <v>790.3368563937635</v>
       </c>
       <c r="C19" t="n">
-        <v>798.0399265571037</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D19" t="n">
-        <v>632.1619337586264</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E19" t="n">
-        <v>462.4039300093638</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F19" t="n">
-        <v>285.6968759711199</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>120.1056009969476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.4461171189529</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.2045716900884</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.4144534580495</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1340.898320638963</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.157123796607</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2202.826373022388</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.33326699273</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.526041857062</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.526041857063</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.526041857063</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2472.646595435518</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.213594688623</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.258086559054</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.231682145345</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1389.839927478758</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.420256792866</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.088849962412</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2089.946377145836</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.03659232028</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1220.261847478575</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>792.3944178877828</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>390.9965865110467</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H20" t="n">
-        <v>101.866431954263</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I20" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.1211194071809</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.1211194071809</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.18108566004</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2423.627888731654</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3549.358872168102</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3549.358872168102</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4377.668747001498</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4924.167532960092</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5093.321597713149</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5028.57894203344</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4808.511714906479</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4549.289412223496</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4186.672462157322</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3781.817007568356</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3362.674544147666</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2954.38842044732</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.0381769455557</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.581715782198</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>406.4914269287513</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>312.371012255705</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>228.9871738718666</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>143.6020841380505</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>127.9301051147206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.4884300809329</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.194476706657</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.194476706657</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.194476706657</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.194476706657</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.194476706657</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1647.933415338732</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.106193433072</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>1701.650755881455</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.472112212057</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.135565212025</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.018047274024</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>1010.695293007218</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>855.8278572460981</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.3420780253189</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.6016380738786</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C22" t="n">
-        <v>798.0399265571035</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="D22" t="n">
-        <v>632.1619337586262</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E22" t="n">
-        <v>462.4039300093635</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F22" t="n">
-        <v>285.6968759711197</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7686062638884</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>101.866431954263</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>101.866431954263</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>188.4461171189529</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.2045716900884</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>881.4144534580495</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>1340.898320638963</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.157123796607</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2202.826373022388</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.33326699273</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.526041857062</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.526041857062</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.526041857062</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2472.646595435518</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.213594688623</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.258086559053</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.231682145345</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1389.839927478758</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.420256792866</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883921</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716171</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731398</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E25" t="n">
-        <v>473.3149733731398</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O26" t="n">
-        <v>4294.449917128814</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562603</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085203</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702765</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057297</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X28" t="n">
-        <v>1373.137619601648</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="29">
@@ -6449,28 +6449,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>388.1086717343205</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903952</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736202</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751428</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258801</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>286.0912842876363</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134639</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>120.5000093134639</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436395</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6947,19 +6947,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423624</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.07928799393</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827327</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785921</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538978</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6974,13 +6974,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6993,16 +6993,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
         <v>143.9964924545671</v>
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312371</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974495</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>267.8521152449519</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7093,7 +7093,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354694</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
         <v>463.598980006605</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130896</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.801834709351</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962456</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771591</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7175,34 +7175,34 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912873</v>
@@ -7211,13 +7211,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>970.996046390395</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736199</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7409,34 +7409,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
         <v>4809.322912595856</v>
@@ -7448,13 +7448,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7488,7 +7488,7 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
         <v>1107.588885023173</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477109</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309358</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324585</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831958</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130894</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.801834709349</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7658,25 +7658,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
         <v>4550.100609912874</v>
@@ -7691,7 +7691,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7728,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7831,25 +7831,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1507.509340638875</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1262.117585972288</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1034.697915286396</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>565.7897837222224</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8055,10 +8055,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>77.34673934026137</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,16 +8137,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>203.3849264120902</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,19 +8690,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>20.04979115197443</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1016.807635770897</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>123.5788425003234</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8933,10 +8933,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>123.8866949288658</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N17" t="n">
-        <v>123.8866949288658</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9401,19 +9401,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>819.6432354258732</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>327.8732572545618</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9717,22 +9717,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,16 +9887,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>826.8607034446122</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>288.735183296506</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,22 +10191,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352419</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10823,22 +10823,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>301.5463146682411</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11376,22 +11376,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>328.579211586382</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>370.8546391407879</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>143.651671086678</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>19.13274743422173</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>18.72012595509079</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142714</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>18.7201259550903</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>26.33579611060398</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>110.0349065174847</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>227.3655273957969</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>161.926849064975</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>69.71657238081391</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>229.4233680290245</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>73.62918697961804</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>107.2592358276481</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>40.15930123557322</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627256</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>114.1599680048247</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-7.978386276044685e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627264</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>30.81337269022703</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>679030.2736340393</v>
+        <v>692130.5969671831</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>679030.2736340393</v>
+        <v>698984.6769263071</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>679030.2736340393</v>
+        <v>698984.6769263071</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>615187.6357487617</v>
+        <v>608886.844693017</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>724468.383113821</v>
+        <v>726568.6467990694</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>724468.383113821</v>
+        <v>726568.6467990692</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>724468.3831138208</v>
+        <v>726568.6467990694</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>726568.6467990692</v>
+        <v>726568.6467990694</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>726568.6467990692</v>
+        <v>726568.6467990694</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>726568.6467990692</v>
+        <v>726568.6467990691</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>726568.6467990692</v>
+        <v>726568.6467990694</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>308284.7089369848</v>
       </c>
       <c r="C2" t="n">
-        <v>308284.7089369849</v>
+        <v>308284.7089369848</v>
       </c>
       <c r="D2" t="n">
         <v>308284.7089369849</v>
       </c>
       <c r="E2" t="n">
-        <v>256502.7502481159</v>
+        <v>253875.632697923</v>
       </c>
       <c r="F2" t="n">
-        <v>302067.4050289132</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="G2" t="n">
-        <v>302067.4050289132</v>
+        <v>302943.1108789775</v>
       </c>
       <c r="H2" t="n">
-        <v>302067.4050289133</v>
+        <v>302943.1108789776</v>
       </c>
       <c r="I2" t="n">
         <v>302943.1108789775</v>
@@ -26350,7 +26350,7 @@
         <v>302943.1108789775</v>
       </c>
       <c r="O2" t="n">
-        <v>302943.1108789775</v>
+        <v>302943.1108789776</v>
       </c>
       <c r="P2" t="n">
         <v>302943.1108789776</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>195702.6160087931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26990.19963889441</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>176910.9817265651</v>
+        <v>99874.97317730841</v>
       </c>
       <c r="F3" t="n">
-        <v>73500.44137969745</v>
+        <v>79150.85324460959</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1311.01817420526</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>152792.9007051282</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21501.21939773568</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147656.3051872102</v>
+        <v>83359.2656380509</v>
       </c>
       <c r="N3" t="n">
-        <v>62829.35093431384</v>
+        <v>67659.41322128705</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218225.2660325691</v>
+        <v>194781.6603085978</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>91712.56557670754</v>
+        <v>90773.2396226321</v>
       </c>
       <c r="F4" t="n">
-        <v>108004.2091771044</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
-        <v>108004.2091771044</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="H4" t="n">
-        <v>108004.2091771044</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="I4" t="n">
         <v>108317.3178284629</v>
@@ -26448,7 +26448,7 @@
         <v>108317.3178284629</v>
       </c>
       <c r="M4" t="n">
-        <v>108317.317828463</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="N4" t="n">
         <v>108317.3178284629</v>
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>69133.12798027776</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>61821.90425487052</v>
+        <v>60922.65329321263</v>
       </c>
       <c r="F5" t="n">
-        <v>77418.48828523986</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>77418.48828523986</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77418.48828523986</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579246</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-111556.6458925166</v>
+        <v>-151332.6953606839</v>
       </c>
       <c r="C6" t="n">
-        <v>30634.65476719343</v>
+        <v>24566.002463005</v>
       </c>
       <c r="D6" t="n">
-        <v>30634.65476719349</v>
+        <v>51556.20210189947</v>
       </c>
       <c r="E6" t="n">
-        <v>-73942.70131002725</v>
+        <v>2068.205403730416</v>
       </c>
       <c r="F6" t="n">
-        <v>43144.26618687145</v>
+        <v>37733.47686072982</v>
       </c>
       <c r="G6" t="n">
-        <v>116644.7075665689</v>
+        <v>116884.3301053394</v>
       </c>
       <c r="H6" t="n">
-        <v>116644.707566569</v>
+        <v>116884.3301053395</v>
       </c>
       <c r="I6" t="n">
-        <v>115596.5362705168</v>
+        <v>116884.3301053394</v>
       </c>
       <c r="J6" t="n">
-        <v>5893.089099731937</v>
+        <v>-35908.57059978875</v>
       </c>
       <c r="K6" t="n">
-        <v>116907.5544447221</v>
+        <v>95383.11070760377</v>
       </c>
       <c r="L6" t="n">
-        <v>116907.554444722</v>
+        <v>116884.3301053394</v>
       </c>
       <c r="M6" t="n">
-        <v>-30748.75074248813</v>
+        <v>33525.06446728853</v>
       </c>
       <c r="N6" t="n">
-        <v>54078.20351040829</v>
+        <v>49224.91688405239</v>
       </c>
       <c r="O6" t="n">
-        <v>116907.554444722</v>
+        <v>116884.3301053395</v>
       </c>
       <c r="P6" t="n">
-        <v>116907.5544447222</v>
+        <v>116884.3301053396</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1016.807635770897</v>
+        <v>1002.017323901524</v>
       </c>
       <c r="F4" t="n">
-        <v>1273.330399428287</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1273.330399428287</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.330399428287</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384744</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
         <v>1278.260503384745</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.54270693223589</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.5117782507923</v>
+        <v>334.5021172936666</v>
       </c>
       <c r="F4" t="n">
-        <v>256.5227636573904</v>
+        <v>276.2431794832218</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.93010395645797</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223589</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.5117782507914</v>
+        <v>334.5021172936666</v>
       </c>
       <c r="N4" t="n">
-        <v>256.5227636573911</v>
+        <v>276.2431794832218</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.54270693223589</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.5117782507923</v>
+        <v>334.5021172936666</v>
       </c>
       <c r="N4" t="n">
-        <v>256.5227636573904</v>
+        <v>276.2431794832218</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>72.71868052833509</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.5216166540426</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.31575064268</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>110.7847180466576</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>195.9391592475749</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>62.0024230856767</v>
+        <v>81.78272691405257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>268.2784653227397</v>
       </c>
       <c r="C8" t="n">
-        <v>113.7278999628231</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>565.7897837222224</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34775,10 +34775,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>583.9724996756211</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>77.34673934026137</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,19 +34857,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>310.9272166398487</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>203.3849264120902</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>640.5448952297621</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>20.04979115197443</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1016.807635770897</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1002.017323901523</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>123.5788425003234</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458551</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35653,10 +35653,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>123.8866949288658</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,10 +35741,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>379.5169886652534</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35887,13 +35887,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N17" t="n">
-        <v>123.8866949288658</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36121,19 +36121,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>819.6432354258732</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>327.8732572545618</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935651</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,19 +36604,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>826.8607034446122</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>288.735183296506</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,7 +36841,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352419</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37543,22 +37543,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>507.1059092967421</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>301.5463146682411</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
